--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Scn8a</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.04968833333333333</v>
+        <v>0.1113035</v>
       </c>
       <c r="H2">
-        <v>0.149065</v>
+        <v>0.222607</v>
       </c>
       <c r="I2">
-        <v>0.0179140656029871</v>
+        <v>0.0289261410371415</v>
       </c>
       <c r="J2">
-        <v>0.02630081541085044</v>
+        <v>0.0273813389619527</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.432277</v>
+        <v>0.1493335</v>
       </c>
       <c r="N2">
-        <v>0.864554</v>
+        <v>0.298667</v>
       </c>
       <c r="O2">
-        <v>0.2396122099901011</v>
+        <v>0.1277186509504481</v>
       </c>
       <c r="P2">
-        <v>0.1928077070094661</v>
+        <v>0.1039080998824773</v>
       </c>
       <c r="Q2">
-        <v>0.02147912366833333</v>
+        <v>0.01662134121725</v>
       </c>
       <c r="R2">
-        <v>0.12887474201</v>
+        <v>0.066485364869</v>
       </c>
       <c r="S2">
-        <v>0.004292428849039393</v>
+        <v>0.003694407710466108</v>
       </c>
       <c r="T2">
-        <v>0.005070999911845303</v>
+        <v>0.002845142903774548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.04968833333333333</v>
+        <v>0.1113035</v>
       </c>
       <c r="H3">
-        <v>0.149065</v>
+        <v>0.222607</v>
       </c>
       <c r="I3">
-        <v>0.0179140656029871</v>
+        <v>0.0289261410371415</v>
       </c>
       <c r="J3">
-        <v>0.02630081541085044</v>
+        <v>0.0273813389619527</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.607586</v>
       </c>
       <c r="O3">
-        <v>0.2970296316244342</v>
+        <v>0.4583001920909173</v>
       </c>
       <c r="P3">
-        <v>0.3585142981011244</v>
+        <v>0.5592891302275516</v>
       </c>
       <c r="Q3">
-        <v>0.02662608967666666</v>
+        <v>0.05964331611699999</v>
       </c>
       <c r="R3">
-        <v>0.23963480709</v>
+        <v>0.357859896702</v>
       </c>
       <c r="S3">
-        <v>0.005321008306951206</v>
+        <v>0.01325685599377092</v>
       </c>
       <c r="T3">
-        <v>0.009429218376508283</v>
+        <v>0.01531408525249629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.04968833333333333</v>
+        <v>0.1113035</v>
       </c>
       <c r="H4">
-        <v>0.149065</v>
+        <v>0.222607</v>
       </c>
       <c r="I4">
-        <v>0.0179140656029871</v>
+        <v>0.0289261410371415</v>
       </c>
       <c r="J4">
-        <v>0.02630081541085044</v>
+        <v>0.0273813389619527</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,152 +685,152 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4959085</v>
+        <v>0.4840425</v>
       </c>
       <c r="N4">
-        <v>0.9918170000000001</v>
+        <v>0.968085</v>
       </c>
       <c r="O4">
-        <v>0.2748833077815291</v>
+        <v>0.4139811569586346</v>
       </c>
       <c r="P4">
-        <v>0.2211891467080224</v>
+        <v>0.3368027698899712</v>
       </c>
       <c r="Q4">
-        <v>0.02464086685083333</v>
+        <v>0.05387562439875</v>
       </c>
       <c r="R4">
-        <v>0.147845201105</v>
+        <v>0.215502497595</v>
       </c>
       <c r="S4">
-        <v>0.004924277608764406</v>
+        <v>0.01197487733290448</v>
       </c>
       <c r="T4">
-        <v>0.005817454918451216</v>
+        <v>0.009222110805681857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.04968833333333333</v>
+        <v>0.406345</v>
       </c>
       <c r="H5">
-        <v>0.149065</v>
+        <v>1.219035</v>
       </c>
       <c r="I5">
-        <v>0.0179140656029871</v>
+        <v>0.1056030832789379</v>
       </c>
       <c r="J5">
-        <v>0.02630081541085044</v>
+        <v>0.1499450176386367</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.3251426666666666</v>
+        <v>0.1493335</v>
       </c>
       <c r="N5">
-        <v>0.975428</v>
+        <v>0.298667</v>
       </c>
       <c r="O5">
-        <v>0.1802273841126749</v>
+        <v>0.1277186509504481</v>
       </c>
       <c r="P5">
-        <v>0.2175341691008653</v>
+        <v>0.1039080998824773</v>
       </c>
       <c r="Q5">
-        <v>0.01615579720222222</v>
+        <v>0.0606809210575</v>
       </c>
       <c r="R5">
-        <v>0.14540217482</v>
+        <v>0.364085526345</v>
       </c>
       <c r="S5">
-        <v>0.003228605182449213</v>
+        <v>0.01348748333259377</v>
       </c>
       <c r="T5">
-        <v>0.005721326027074583</v>
+        <v>0.01558050186967529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.04968833333333333</v>
+        <v>0.406345</v>
       </c>
       <c r="H6">
-        <v>0.149065</v>
+        <v>1.219035</v>
       </c>
       <c r="I6">
-        <v>0.0179140656029871</v>
+        <v>0.1056030832789379</v>
       </c>
       <c r="J6">
-        <v>0.02630081541085044</v>
+        <v>0.1499450176386367</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.014879</v>
+        <v>0.5358619999999999</v>
       </c>
       <c r="N6">
-        <v>0.044637</v>
+        <v>1.607586</v>
       </c>
       <c r="O6">
-        <v>0.00824746649126073</v>
+        <v>0.4583001920909173</v>
       </c>
       <c r="P6">
-        <v>0.009954679080521908</v>
+        <v>0.5592891302275516</v>
       </c>
       <c r="Q6">
-        <v>0.0007393127116666667</v>
+        <v>0.21774484439</v>
       </c>
       <c r="R6">
-        <v>0.006653814405</v>
+        <v>1.95970359951</v>
       </c>
       <c r="S6">
-        <v>0.0001477456557828826</v>
+        <v>0.04839791335213037</v>
       </c>
       <c r="T6">
-        <v>0.0002618161769710611</v>
+        <v>0.08386261849706803</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>2.65342</v>
+        <v>0.406345</v>
       </c>
       <c r="H7">
-        <v>5.306839999999999</v>
+        <v>1.219035</v>
       </c>
       <c r="I7">
-        <v>0.9566338165017548</v>
+        <v>0.1056030832789379</v>
       </c>
       <c r="J7">
-        <v>0.9363312598860736</v>
+        <v>0.1499450176386367</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,42 +871,42 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.432277</v>
+        <v>0.4840425</v>
       </c>
       <c r="N7">
-        <v>0.864554</v>
+        <v>0.968085</v>
       </c>
       <c r="O7">
-        <v>0.2396122099901011</v>
+        <v>0.4139811569586346</v>
       </c>
       <c r="P7">
-        <v>0.1928077070094661</v>
+        <v>0.3368027698899712</v>
       </c>
       <c r="Q7">
-        <v>1.14701243734</v>
+        <v>0.1966882496625</v>
       </c>
       <c r="R7">
-        <v>4.58804974936</v>
+        <v>1.180129497975</v>
       </c>
       <c r="S7">
-        <v>0.2292211429232503</v>
+        <v>0.04371768659421375</v>
       </c>
       <c r="T7">
-        <v>0.1805318832199183</v>
+        <v>0.05050189727189344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,60 +915,60 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.65342</v>
+        <v>3.3023715</v>
       </c>
       <c r="H8">
-        <v>5.306839999999999</v>
+        <v>6.604743</v>
       </c>
       <c r="I8">
-        <v>0.9566338165017548</v>
+        <v>0.8582377352557337</v>
       </c>
       <c r="J8">
-        <v>0.9363312598860736</v>
+        <v>0.8124035041107618</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.5358619999999999</v>
+        <v>0.1493335</v>
       </c>
       <c r="N8">
-        <v>1.607586</v>
+        <v>0.298667</v>
       </c>
       <c r="O8">
-        <v>0.2970296316244342</v>
+        <v>0.1277186509504481</v>
       </c>
       <c r="P8">
-        <v>0.3585142981011244</v>
+        <v>0.1039080998824773</v>
       </c>
       <c r="Q8">
-        <v>1.42186694804</v>
+        <v>0.49315469439525</v>
       </c>
       <c r="R8">
-        <v>8.531201688239999</v>
+        <v>1.972618777581</v>
       </c>
       <c r="S8">
-        <v>0.2841485901149928</v>
+        <v>0.1096129657416301</v>
       </c>
       <c r="T8">
-        <v>0.3356881444281972</v>
+        <v>0.08441530445001559</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,60 +977,60 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.65342</v>
+        <v>3.3023715</v>
       </c>
       <c r="H9">
-        <v>5.306839999999999</v>
+        <v>6.604743</v>
       </c>
       <c r="I9">
-        <v>0.9566338165017548</v>
+        <v>0.8582377352557337</v>
       </c>
       <c r="J9">
-        <v>0.9363312598860736</v>
+        <v>0.8124035041107618</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4959085</v>
+        <v>0.5358619999999999</v>
       </c>
       <c r="N9">
-        <v>0.9918170000000001</v>
+        <v>1.607586</v>
       </c>
       <c r="O9">
-        <v>0.2748833077815291</v>
+        <v>0.4583001920909173</v>
       </c>
       <c r="P9">
-        <v>0.2211891467080224</v>
+        <v>0.5592891302275516</v>
       </c>
       <c r="Q9">
-        <v>1.31585353207</v>
+        <v>1.769615396733</v>
       </c>
       <c r="R9">
-        <v>5.26341412828</v>
+        <v>10.617692380398</v>
       </c>
       <c r="S9">
-        <v>0.2629626678156707</v>
+        <v>0.3933305189273765</v>
       </c>
       <c r="T9">
-        <v>0.2071063124102482</v>
+        <v>0.4543684492079231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,418 +1039,418 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.65342</v>
+        <v>3.3023715</v>
       </c>
       <c r="H10">
-        <v>5.306839999999999</v>
+        <v>6.604743</v>
       </c>
       <c r="I10">
-        <v>0.9566338165017548</v>
+        <v>0.8582377352557337</v>
       </c>
       <c r="J10">
-        <v>0.9363312598860736</v>
+        <v>0.8124035041107618</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3251426666666666</v>
+        <v>0.4840425</v>
       </c>
       <c r="N10">
-        <v>0.975428</v>
+        <v>0.968085</v>
       </c>
       <c r="O10">
-        <v>0.1802273841126749</v>
+        <v>0.4139811569586346</v>
       </c>
       <c r="P10">
-        <v>0.2175341691008653</v>
+        <v>0.3368027698899712</v>
       </c>
       <c r="Q10">
-        <v>0.8627400545866665</v>
+        <v>1.59848815678875</v>
       </c>
       <c r="R10">
-        <v>5.176440327519999</v>
+        <v>6.393952627155</v>
       </c>
       <c r="S10">
-        <v>0.1724116103018359</v>
+        <v>0.3552942505867269</v>
       </c>
       <c r="T10">
-        <v>0.2036840426224834</v>
+        <v>0.2736197504528232</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>2.65342</v>
+        <v>0.0004946666666666667</v>
       </c>
       <c r="H11">
-        <v>5.306839999999999</v>
+        <v>0.001484</v>
       </c>
       <c r="I11">
-        <v>0.9566338165017548</v>
+        <v>0.0001285565841718604</v>
       </c>
       <c r="J11">
-        <v>0.9363312598860736</v>
+        <v>0.0001825365196042254</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.014879</v>
+        <v>0.1493335</v>
       </c>
       <c r="N11">
-        <v>0.044637</v>
+        <v>0.298667</v>
       </c>
       <c r="O11">
-        <v>0.00824746649126073</v>
+        <v>0.1277186509504481</v>
       </c>
       <c r="P11">
-        <v>0.009954679080521908</v>
+        <v>0.1039080998824773</v>
       </c>
       <c r="Q11">
-        <v>0.03948023618</v>
+        <v>7.387030466666667E-05</v>
       </c>
       <c r="R11">
-        <v>0.23688141708</v>
+        <v>0.000443221828</v>
       </c>
       <c r="S11">
-        <v>0.007889805346005089</v>
+        <v>1.641907350122773E-05</v>
       </c>
       <c r="T11">
-        <v>0.009320877205226619</v>
+        <v>1.896702291123563E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.07059666666666667</v>
+        <v>0.0004946666666666667</v>
       </c>
       <c r="H12">
-        <v>0.21179</v>
+        <v>0.001484</v>
       </c>
       <c r="I12">
-        <v>0.02545211789525803</v>
+        <v>0.0001285565841718604</v>
       </c>
       <c r="J12">
-        <v>0.03736792470307595</v>
+        <v>0.0001825365196042254</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.432277</v>
+        <v>0.5358619999999999</v>
       </c>
       <c r="N12">
-        <v>0.864554</v>
+        <v>1.607586</v>
       </c>
       <c r="O12">
-        <v>0.2396122099901011</v>
+        <v>0.4583001920909173</v>
       </c>
       <c r="P12">
-        <v>0.1928077070094661</v>
+        <v>0.5592891302275516</v>
       </c>
       <c r="Q12">
-        <v>0.03051731527666667</v>
+        <v>0.0002650730693333333</v>
       </c>
       <c r="R12">
-        <v>0.18310389166</v>
+        <v>0.002385657624</v>
       </c>
       <c r="S12">
-        <v>0.006098638217811377</v>
+        <v>5.89175072205158E-05</v>
       </c>
       <c r="T12">
-        <v>0.007204823877702458</v>
+        <v>0.0001020906912842116</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.0004946666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.001484</v>
+      </c>
+      <c r="I13">
+        <v>0.0001285565841718604</v>
+      </c>
+      <c r="J13">
+        <v>0.0001825365196042254</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.07059666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.21179</v>
-      </c>
-      <c r="I13">
-        <v>0.02545211789525803</v>
-      </c>
-      <c r="J13">
-        <v>0.03736792470307595</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5358619999999999</v>
+        <v>0.4840425</v>
       </c>
       <c r="N13">
-        <v>1.607586</v>
+        <v>0.968085</v>
       </c>
       <c r="O13">
-        <v>0.2970296316244342</v>
+        <v>0.4139811569586346</v>
       </c>
       <c r="P13">
-        <v>0.3585142981011244</v>
+        <v>0.3368027698899712</v>
       </c>
       <c r="Q13">
-        <v>0.03783007099333333</v>
+        <v>0.00023943969</v>
       </c>
       <c r="R13">
-        <v>0.34047063894</v>
+        <v>0.00143663814</v>
       </c>
       <c r="S13">
-        <v>0.007560033202490162</v>
+        <v>5.322000345011686E-05</v>
       </c>
       <c r="T13">
-        <v>0.01339693529641894</v>
+        <v>6.147880540877815E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.07059666666666667</v>
+        <v>0.027337</v>
       </c>
       <c r="H14">
-        <v>0.21179</v>
+        <v>0.082011</v>
       </c>
       <c r="I14">
-        <v>0.02545211789525803</v>
+        <v>0.007104483844015123</v>
       </c>
       <c r="J14">
-        <v>0.03736792470307595</v>
+        <v>0.01008760276904456</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.4959085</v>
+        <v>0.1493335</v>
       </c>
       <c r="N14">
-        <v>0.9918170000000001</v>
+        <v>0.298667</v>
       </c>
       <c r="O14">
-        <v>0.2748833077815291</v>
+        <v>0.1277186509504481</v>
       </c>
       <c r="P14">
-        <v>0.2211891467080224</v>
+        <v>0.1039080998824773</v>
       </c>
       <c r="Q14">
-        <v>0.03500948707166667</v>
+        <v>0.004082329889500001</v>
       </c>
       <c r="R14">
-        <v>0.21005692243</v>
+        <v>0.024493979337</v>
       </c>
       <c r="S14">
-        <v>0.006996362357093978</v>
+        <v>0.0009073750922568651</v>
       </c>
       <c r="T14">
-        <v>0.008265379379323002</v>
+        <v>0.001048183636100637</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.07059666666666667</v>
+        <v>0.027337</v>
       </c>
       <c r="H15">
-        <v>0.21179</v>
+        <v>0.082011</v>
       </c>
       <c r="I15">
-        <v>0.02545211789525803</v>
+        <v>0.007104483844015123</v>
       </c>
       <c r="J15">
-        <v>0.03736792470307595</v>
+        <v>0.01008760276904456</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.3251426666666666</v>
+        <v>0.5358619999999999</v>
       </c>
       <c r="N15">
-        <v>0.975428</v>
+        <v>1.607586</v>
       </c>
       <c r="O15">
-        <v>0.1802273841126749</v>
+        <v>0.4583001920909173</v>
       </c>
       <c r="P15">
-        <v>0.2175341691008653</v>
+        <v>0.5592891302275516</v>
       </c>
       <c r="Q15">
-        <v>0.02295398845777778</v>
+        <v>0.014648859494</v>
       </c>
       <c r="R15">
-        <v>0.20658589612</v>
+        <v>0.131839735446</v>
       </c>
       <c r="S15">
-        <v>0.004587168628389755</v>
+        <v>0.003255986310418949</v>
       </c>
       <c r="T15">
-        <v>0.008128800451307323</v>
+        <v>0.005641886578779973</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.027337</v>
+      </c>
+      <c r="H16">
+        <v>0.082011</v>
+      </c>
+      <c r="I16">
+        <v>0.007104483844015123</v>
+      </c>
+      <c r="J16">
+        <v>0.01008760276904456</v>
+      </c>
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.07059666666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.21179</v>
-      </c>
-      <c r="I16">
-        <v>0.02545211789525803</v>
-      </c>
-      <c r="J16">
-        <v>0.03736792470307595</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.014879</v>
+        <v>0.4840425</v>
       </c>
       <c r="N16">
-        <v>0.044637</v>
+        <v>0.968085</v>
       </c>
       <c r="O16">
-        <v>0.00824746649126073</v>
+        <v>0.4139811569586346</v>
       </c>
       <c r="P16">
-        <v>0.009954679080521908</v>
+        <v>0.3368027698899712</v>
       </c>
       <c r="Q16">
-        <v>0.001050407803333333</v>
+        <v>0.0132322698225</v>
       </c>
       <c r="R16">
-        <v>0.009453670230000001</v>
+        <v>0.07939361893499999</v>
       </c>
       <c r="S16">
-        <v>0.0002099154894727582</v>
+        <v>0.002941122441339308</v>
       </c>
       <c r="T16">
-        <v>0.0003719856983242279</v>
+        <v>0.003397532554163952</v>
       </c>
     </row>
   </sheetData>
